--- a/data CHILE/dta/xlsx/zone_summary.xlsx
+++ b/data CHILE/dta/xlsx/zone_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\u_sociales\Documents\GitHub\Streamlit---Dashboard\data CHILE\dta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Streamlit---Dashboard\data CHILE\dta\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B56724D-596A-4FD5-BC09-E80693F6E2AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94636A35-E61A-4918-8D64-DA7774C8B2DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zone_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="19">
   <si>
     <t>zone_ID</t>
   </si>
@@ -75,12 +75,15 @@
   <si>
     <t>South Center</t>
   </si>
+  <si>
+    <t>codregion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +214,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,8 +568,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,16 +925,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -947,8 +959,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -973,8 +988,11 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -990,8 +1008,11 @@
       <c r="H3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1016,8 +1037,11 @@
       <c r="H4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1033,8 +1057,11 @@
       <c r="H5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1050,8 +1077,11 @@
       <c r="H6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1076,13 +1106,16 @@
       <c r="H7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1093,13 +1126,16 @@
       <c r="H8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1110,13 +1146,16 @@
       <c r="H9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1125,24 +1164,27 @@
         <v>13</v>
       </c>
       <c r="E10">
-        <v>2.4400000000000002E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="F10">
-        <v>1E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G10">
-        <v>195865</v>
+        <v>97137</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1150,25 +1192,19 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
-        <v>-2.6700000000000002E-2</v>
-      </c>
-      <c r="F11">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="G11">
-        <v>206470</v>
-      </c>
       <c r="H11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1179,13 +1215,16 @@
       <c r="H12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -1194,24 +1233,27 @@
         <v>13</v>
       </c>
       <c r="E13">
-        <v>2.0299999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="F13">
-        <v>1E-3</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="G13">
-        <v>215437</v>
+        <v>97137</v>
       </c>
       <c r="H13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1219,25 +1261,19 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-      <c r="E14">
-        <v>-2.46E-2</v>
-      </c>
-      <c r="F14">
-        <v>1E-3</v>
-      </c>
-      <c r="G14">
-        <v>546311</v>
-      </c>
       <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -1245,25 +1281,19 @@
       <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
-        <v>-2.69E-2</v>
-      </c>
-      <c r="F15">
-        <v>1E-3</v>
-      </c>
-      <c r="G15">
-        <v>546311</v>
-      </c>
       <c r="H15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1272,19 +1302,902 @@
         <v>13</v>
       </c>
       <c r="E16">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G16">
+        <v>97137</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="F19">
+        <v>1E-3</v>
+      </c>
+      <c r="G19">
+        <v>195865</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22">
+        <v>2.4400000000000002E-2</v>
+      </c>
+      <c r="F22">
+        <v>1E-3</v>
+      </c>
+      <c r="G22">
+        <v>195865</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="F23">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G23">
+        <v>206470</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>1E-3</v>
+      </c>
+      <c r="G25">
+        <v>215437</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="F26">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G26">
+        <v>206470</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>1E-3</v>
+      </c>
+      <c r="G28">
+        <v>215437</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="F29">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G29">
+        <v>206470</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F31">
+        <v>1E-3</v>
+      </c>
+      <c r="G31">
+        <v>215437</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="F32">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G32">
+        <v>206470</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F34">
+        <v>1E-3</v>
+      </c>
+      <c r="G34">
+        <v>215437</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="F35">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G35">
+        <v>206470</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="F37">
+        <v>1E-3</v>
+      </c>
+      <c r="G37">
+        <v>215437</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="F38">
+        <v>1E-3</v>
+      </c>
+      <c r="G38">
+        <v>546311</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="F39">
+        <v>1E-3</v>
+      </c>
+      <c r="G39">
+        <v>546311</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40">
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="F16">
+      <c r="F40">
         <v>1E-3</v>
       </c>
-      <c r="G16">
+      <c r="G40">
         <v>568806</v>
       </c>
-      <c r="H16" t="s">
-        <v>10</v>
-      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="F41">
+        <v>1E-3</v>
+      </c>
+      <c r="G41">
+        <v>546311</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="F42">
+        <v>1E-3</v>
+      </c>
+      <c r="G42">
+        <v>546311</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="F43">
+        <v>1E-3</v>
+      </c>
+      <c r="G43">
+        <v>568806</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="F44">
+        <v>1E-3</v>
+      </c>
+      <c r="G44">
+        <v>546311</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="F45">
+        <v>1E-3</v>
+      </c>
+      <c r="G45">
+        <v>546311</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="F46">
+        <v>1E-3</v>
+      </c>
+      <c r="G46">
+        <v>568806</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="F47">
+        <v>1E-3</v>
+      </c>
+      <c r="G47">
+        <v>546311</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="F48">
+        <v>1E-3</v>
+      </c>
+      <c r="G48">
+        <v>546311</v>
+      </c>
+      <c r="H48" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="F49">
+        <v>1E-3</v>
+      </c>
+      <c r="G49">
+        <v>568806</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>